--- a/CASUAL/LA ONT/SOLIS, ANGELA MARI M..xlsx
+++ b/CASUAL/LA ONT/SOLIS, ANGELA MARI M..xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="61">
   <si>
     <t>PERIOD</t>
   </si>
@@ -214,6 +214,9 @@
   </si>
   <si>
     <t>UT(0-1-0)</t>
+  </si>
+  <si>
+    <t>UT(0-2-9)</t>
   </si>
 </sst>
 </file>
@@ -1079,7 +1082,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1122,7 +1125,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1186,7 +1189,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1246,7 +1249,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1312,7 +1315,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1375,7 +1378,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1473,7 +1476,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1532,7 +1535,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1597,7 +1600,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1640,7 +1643,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1715,7 +1718,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1901,7 +1904,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1967,7 +1970,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2025,7 +2028,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2091,7 +2094,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2147,7 +2150,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2222,7 +2225,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2265,7 +2268,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2331,7 +2334,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2387,7 +2390,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2485,7 +2488,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2548,7 +2551,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2614,7 +2617,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K133" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K134" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -2992,12 +2995,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K133"/>
+  <dimension ref="A2:K134"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A36" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A30" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="F51" sqref="F51"/>
+      <selection pane="bottomLeft" activeCell="E48" sqref="E48:F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3160,7 +3163,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>48.625</v>
+        <v>48.356000000000002</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3834,23 +3837,19 @@
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="40">
-        <v>44713</v>
-      </c>
+      <c r="A42" s="40"/>
       <c r="B42" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C42" s="13">
-        <v>1.25</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="C42" s="13"/>
       <c r="D42" s="39">
-        <v>0.125</v>
+        <v>0.26900000000000002</v>
       </c>
       <c r="E42" s="9"/>
       <c r="F42" s="20"/>
-      <c r="G42" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G42" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H42" s="39"/>
       <c r="I42" s="9"/>
@@ -3859,13 +3858,17 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
-        <v>44743</v>
-      </c>
-      <c r="B43" s="20"/>
+        <v>44713</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="C43" s="13">
         <v>1.25</v>
       </c>
-      <c r="D43" s="39"/>
+      <c r="D43" s="39">
+        <v>0.125</v>
+      </c>
       <c r="E43" s="9"/>
       <c r="F43" s="20"/>
       <c r="G43" s="13">
@@ -3879,11 +3882,9 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
-        <v>44774</v>
-      </c>
-      <c r="B44" s="20" t="s">
-        <v>53</v>
-      </c>
+        <v>44743</v>
+      </c>
+      <c r="B44" s="20"/>
       <c r="C44" s="13">
         <v>1.25</v>
       </c>
@@ -3894,20 +3895,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H44" s="39">
-        <v>3</v>
-      </c>
+      <c r="H44" s="39"/>
       <c r="I44" s="9"/>
       <c r="J44" s="11"/>
-      <c r="K44" s="20" t="s">
-        <v>54</v>
-      </c>
+      <c r="K44" s="20"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
-        <v>44805</v>
-      </c>
-      <c r="B45" s="20"/>
+        <v>44774</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="C45" s="13">
         <v>1.25</v>
       </c>
@@ -3918,14 +3917,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H45" s="39"/>
+      <c r="H45" s="39">
+        <v>3</v>
+      </c>
       <c r="I45" s="9"/>
       <c r="J45" s="11"/>
-      <c r="K45" s="20"/>
+      <c r="K45" s="20" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
-        <v>44835</v>
+        <v>44805</v>
       </c>
       <c r="B46" s="20"/>
       <c r="C46" s="13">
@@ -3945,7 +3948,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
-        <v>44866</v>
+        <v>44835</v>
       </c>
       <c r="B47" s="20"/>
       <c r="C47" s="13">
@@ -3965,7 +3968,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
-        <v>44896</v>
+        <v>44866</v>
       </c>
       <c r="B48" s="20"/>
       <c r="C48" s="13">
@@ -3984,17 +3987,19 @@
       <c r="K48" s="20"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="48" t="s">
-        <v>55</v>
+      <c r="A49" s="40">
+        <v>44896</v>
       </c>
       <c r="B49" s="20"/>
-      <c r="C49" s="13"/>
+      <c r="C49" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D49" s="39"/>
       <c r="E49" s="9"/>
       <c r="F49" s="20"/>
-      <c r="G49" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G49" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H49" s="39"/>
       <c r="I49" s="9"/>
@@ -4002,19 +4007,17 @@
       <c r="K49" s="20"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="40">
-        <v>44957</v>
+      <c r="A50" s="48" t="s">
+        <v>55</v>
       </c>
       <c r="B50" s="20"/>
-      <c r="C50" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C50" s="13"/>
       <c r="D50" s="39"/>
       <c r="E50" s="9"/>
       <c r="F50" s="20"/>
-      <c r="G50" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G50" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H50" s="39"/>
       <c r="I50" s="9"/>
@@ -4023,7 +4026,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
-        <v>44985</v>
+        <v>44957</v>
       </c>
       <c r="B51" s="20"/>
       <c r="C51" s="13">
@@ -4043,11 +4046,9 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
-        <v>45016</v>
-      </c>
-      <c r="B52" s="20" t="s">
-        <v>56</v>
-      </c>
+        <v>44985</v>
+      </c>
+      <c r="B52" s="20"/>
       <c r="C52" s="13">
         <v>1.25</v>
       </c>
@@ -4058,20 +4059,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H52" s="39">
-        <v>2</v>
-      </c>
+      <c r="H52" s="39"/>
       <c r="I52" s="9"/>
       <c r="J52" s="11"/>
-      <c r="K52" s="20" t="s">
-        <v>57</v>
-      </c>
+      <c r="K52" s="20"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
-        <v>45046</v>
-      </c>
-      <c r="B53" s="20"/>
+        <v>45016</v>
+      </c>
+      <c r="B53" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="C53" s="13">
         <v>1.25</v>
       </c>
@@ -4082,14 +4081,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H53" s="39"/>
+      <c r="H53" s="39">
+        <v>2</v>
+      </c>
       <c r="I53" s="9"/>
       <c r="J53" s="11"/>
-      <c r="K53" s="20"/>
+      <c r="K53" s="20" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
-        <v>45077</v>
+        <v>45046</v>
       </c>
       <c r="B54" s="20"/>
       <c r="C54" s="13">
@@ -4109,7 +4112,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
-        <v>45107</v>
+        <v>45077</v>
       </c>
       <c r="B55" s="20"/>
       <c r="C55" s="13">
@@ -4129,7 +4132,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
-        <v>45138</v>
+        <v>45107</v>
       </c>
       <c r="B56" s="20"/>
       <c r="C56" s="13">
@@ -4149,7 +4152,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
-        <v>45169</v>
+        <v>45138</v>
       </c>
       <c r="B57" s="20"/>
       <c r="C57" s="13">
@@ -4169,7 +4172,7 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
-        <v>45199</v>
+        <v>45169</v>
       </c>
       <c r="B58" s="20"/>
       <c r="C58" s="13">
@@ -4189,7 +4192,7 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
-        <v>45230</v>
+        <v>45199</v>
       </c>
       <c r="B59" s="20"/>
       <c r="C59" s="13">
@@ -4209,7 +4212,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
-        <v>45260</v>
+        <v>45230</v>
       </c>
       <c r="B60" s="20"/>
       <c r="C60" s="13">
@@ -4229,16 +4232,18 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
-        <v>45291</v>
+        <v>45260</v>
       </c>
       <c r="B61" s="20"/>
-      <c r="C61" s="13"/>
+      <c r="C61" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D61" s="39"/>
       <c r="E61" s="9"/>
       <c r="F61" s="20"/>
-      <c r="G61" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G61" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H61" s="39"/>
       <c r="I61" s="9"/>
@@ -4246,8 +4251,8 @@
       <c r="K61" s="20"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="48" t="s">
-        <v>58</v>
+      <c r="A62" s="40">
+        <v>45291</v>
       </c>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -4264,8 +4269,8 @@
       <c r="K62" s="20"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="40">
-        <v>45322</v>
+      <c r="A63" s="48" t="s">
+        <v>58</v>
       </c>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -4282,7 +4287,9 @@
       <c r="K63" s="20"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="40"/>
+      <c r="A64" s="40">
+        <v>45322</v>
+      </c>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
       <c r="D64" s="39"/>
@@ -5386,20 +5393,36 @@
       <c r="K132" s="20"/>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A133" s="41"/>
-      <c r="B133" s="15"/>
-      <c r="C133" s="42"/>
-      <c r="D133" s="43"/>
+      <c r="A133" s="40"/>
+      <c r="B133" s="20"/>
+      <c r="C133" s="13"/>
+      <c r="D133" s="39"/>
       <c r="E133" s="9"/>
-      <c r="F133" s="15"/>
-      <c r="G133" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H133" s="43"/>
+      <c r="F133" s="20"/>
+      <c r="G133" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H133" s="39"/>
       <c r="I133" s="9"/>
-      <c r="J133" s="12"/>
-      <c r="K133" s="15"/>
+      <c r="J133" s="11"/>
+      <c r="K133" s="20"/>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A134" s="41"/>
+      <c r="B134" s="15"/>
+      <c r="C134" s="42"/>
+      <c r="D134" s="43"/>
+      <c r="E134" s="9"/>
+      <c r="F134" s="15"/>
+      <c r="G134" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H134" s="43"/>
+      <c r="I134" s="9"/>
+      <c r="J134" s="12"/>
+      <c r="K134" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5511,12 +5534,14 @@
       <c r="B3" s="11"/>
       <c r="D3"/>
       <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3"/>
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>9</v>
+      </c>
       <c r="G3" s="47">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.125</v>
+        <v>0.26900000000000002</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="35">

--- a/CASUAL/LA ONT/SOLIS, ANGELA MARI M..xlsx
+++ b/CASUAL/LA ONT/SOLIS, ANGELA MARI M..xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="63">
   <si>
     <t>PERIOD</t>
   </si>
@@ -217,6 +217,12 @@
   </si>
   <si>
     <t>UT(0-2-9)</t>
+  </si>
+  <si>
+    <t>UT(0-0-5)</t>
+  </si>
+  <si>
+    <t>UT(0-0-45)</t>
   </si>
 </sst>
 </file>
@@ -3000,7 +3006,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A30" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="E48" sqref="E48:F48"/>
+      <selection pane="bottomLeft" activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3163,7 +3169,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>48.356000000000002</v>
+        <v>48.252000000000002</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3930,11 +3936,15 @@
       <c r="A46" s="40">
         <v>44805</v>
       </c>
-      <c r="B46" s="20"/>
+      <c r="B46" s="20" t="s">
+        <v>62</v>
+      </c>
       <c r="C46" s="13">
         <v>1.25</v>
       </c>
-      <c r="D46" s="39"/>
+      <c r="D46" s="39">
+        <v>9.4E-2</v>
+      </c>
       <c r="E46" s="9"/>
       <c r="F46" s="20"/>
       <c r="G46" s="13">
@@ -3970,11 +3980,15 @@
       <c r="A48" s="40">
         <v>44866</v>
       </c>
-      <c r="B48" s="20"/>
+      <c r="B48" s="20" t="s">
+        <v>61</v>
+      </c>
       <c r="C48" s="13">
         <v>1.25</v>
       </c>
-      <c r="D48" s="39"/>
+      <c r="D48" s="39">
+        <v>0.01</v>
+      </c>
       <c r="E48" s="9"/>
       <c r="F48" s="20"/>
       <c r="G48" s="13">
@@ -5533,15 +5547,13 @@
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3"/>
-      <c r="E3">
-        <v>2</v>
-      </c>
+      <c r="E3"/>
       <c r="F3">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="G3" s="47">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.26900000000000002</v>
+        <v>9.4E-2</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="35">
